--- a/report/data (Autosaved).xlsx
+++ b/report/data (Autosaved).xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +76,46 @@
   </si>
   <si>
     <t>交叉熵loss+softmax+batch+L2正则化+训练集乱序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交叉熵loss+softmax+SGD+L2正则化+训练集乱序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试集准确率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上述的cnn基本结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn+batch normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个epoch结果为90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个epoch结果为96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn+batch normal+dropout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnn特殊结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +219,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4086,7 +4126,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13915,10 +13954,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -14064,6 +14103,94 @@
       <c r="B13" t="s">
         <v>13</v>
       </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>74.03</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
+      </c>
+      <c r="D14">
+        <v>8.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>98.66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>99.17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>98.94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>98.93</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
